--- a/ig/ch-epreg/StructureDefinition-ch-epreg-observation-urine-finding.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-observation-urine-finding.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -813,7 +813,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -858,7 +858,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1124,7 +1124,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1180,7 +1180,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1213,7 +1213,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1225,7 +1225,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1253,7 +1253,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1333,7 +1333,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1383,7 +1383,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1416,7 +1416,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1453,7 +1453,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1475,7 +1475,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1538,6 +1538,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2087,7 +2090,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2102,7 +2105,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -7055,7 +7058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>327</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>484</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>211</v>
+        <v>485</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -10127,7 +10130,7 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>215</v>
@@ -10142,12 +10145,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10170,16 +10173,16 @@
         <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>329</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>331</v>
@@ -10231,7 +10234,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10252,7 +10255,7 @@
         <v>84</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>334</v>
@@ -10269,10 +10272,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10298,13 +10301,13 @@
         <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>341</v>
@@ -10356,7 +10359,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10394,10 +10397,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10481,7 +10484,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10519,10 +10522,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10548,10 +10551,10 @@
         <v>85</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>407</v>
@@ -10606,7 +10609,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10644,13 +10647,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>469</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>84</v>
@@ -10771,7 +10774,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>477</v>
@@ -10892,7 +10895,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>478</v>
@@ -11015,7 +11018,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>479</v>
@@ -11140,7 +11143,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>480</v>
@@ -11188,7 +11191,7 @@
         <v>84</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>84</v>
@@ -11209,7 +11212,7 @@
         <v>484</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>211</v>
+        <v>485</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>84</v>
@@ -11242,13 +11245,13 @@
         <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>215</v>
@@ -11263,12 +11266,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11294,13 +11297,13 @@
         <v>231</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>329</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>331</v>
@@ -11352,7 +11355,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11367,13 +11370,13 @@
         <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>334</v>
@@ -11390,10 +11393,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11419,13 +11422,13 @@
         <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>341</v>
@@ -11477,7 +11480,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11515,10 +11518,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11602,7 +11605,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -11640,10 +11643,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11669,10 +11672,10 @@
         <v>85</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>407</v>
@@ -11727,7 +11730,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -11765,13 +11768,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>469</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -11892,7 +11895,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>477</v>
@@ -12013,7 +12016,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>478</v>
@@ -12136,7 +12139,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>479</v>
@@ -12261,7 +12264,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>480</v>
@@ -12309,7 +12312,7 @@
         <v>84</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>84</v>
@@ -12330,7 +12333,7 @@
         <v>484</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>211</v>
+        <v>485</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>84</v>
@@ -12363,13 +12366,13 @@
         <v>107</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>215</v>
@@ -12384,12 +12387,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12415,13 +12418,13 @@
         <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>329</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>331</v>
@@ -12473,7 +12476,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12488,13 +12491,13 @@
         <v>107</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>334</v>
@@ -12511,10 +12514,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12540,13 +12543,13 @@
         <v>193</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>341</v>
@@ -12598,7 +12601,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12636,10 +12639,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12723,7 +12726,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12761,10 +12764,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12790,10 +12793,10 @@
         <v>85</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>407</v>
@@ -12848,7 +12851,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -12886,13 +12889,13 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>469</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>84</v>
@@ -13013,7 +13016,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>477</v>
@@ -13134,7 +13137,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>478</v>
@@ -13257,7 +13260,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>479</v>
@@ -13382,7 +13385,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>480</v>
@@ -13430,7 +13433,7 @@
         <v>84</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>84</v>
@@ -13451,7 +13454,7 @@
         <v>484</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>211</v>
+        <v>485</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>84</v>
@@ -13484,13 +13487,13 @@
         <v>107</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>215</v>
@@ -13505,12 +13508,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13536,13 +13539,13 @@
         <v>231</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>329</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>331</v>
@@ -13594,7 +13597,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13609,13 +13612,13 @@
         <v>107</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>334</v>
@@ -13632,10 +13635,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13661,13 +13664,13 @@
         <v>193</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>341</v>
@@ -13719,7 +13722,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13757,10 +13760,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13844,7 +13847,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13882,10 +13885,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13911,10 +13914,10 @@
         <v>85</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>407</v>
@@ -13969,7 +13972,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14007,13 +14010,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>469</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>84</v>
@@ -14134,7 +14137,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>477</v>
@@ -14255,7 +14258,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>478</v>
@@ -14378,7 +14381,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>479</v>
@@ -14503,7 +14506,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>480</v>
@@ -14551,7 +14554,7 @@
         <v>84</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>84</v>
@@ -14572,7 +14575,7 @@
         <v>484</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>211</v>
+        <v>485</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>84</v>
@@ -14605,13 +14608,13 @@
         <v>107</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>215</v>
@@ -14626,12 +14629,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14657,13 +14660,13 @@
         <v>231</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>329</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>331</v>
@@ -14715,7 +14718,7 @@
         <v>84</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -14730,13 +14733,13 @@
         <v>107</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>334</v>
@@ -14753,10 +14756,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14782,13 +14785,13 @@
         <v>193</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>341</v>
@@ -14840,7 +14843,7 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -14878,10 +14881,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14965,7 +14968,7 @@
         <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15003,10 +15006,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15032,10 +15035,10 @@
         <v>85</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>407</v>
@@ -15090,7 +15093,7 @@
         <v>84</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>82</v>
@@ -15128,12 +15131,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ105">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
